--- a/Screenshot and documentations/screenshots.xlsx
+++ b/Screenshot and documentations/screenshots.xlsx
@@ -765,18 +765,18 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>150781</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>75286</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="2" name="Picture 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -789,7 +789,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="190500"/>
+          <a:off x="0" y="381000"/>
           <a:ext cx="12952381" cy="7314286"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -814,7 +814,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPr id="3" name="Picture 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -852,7 +852,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPr id="5" name="Picture 4"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -879,18 +879,18 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>124</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>150781</xdr:colOff>
-      <xdr:row>162</xdr:row>
+      <xdr:row>161</xdr:row>
       <xdr:rowOff>75286</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPr id="10" name="Picture 9"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -903,45 +903,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="23622000"/>
-          <a:ext cx="12952381" cy="7314286"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>165</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>150781</xdr:colOff>
-      <xdr:row>203</xdr:row>
-      <xdr:rowOff>75286</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="31432500"/>
+          <a:off x="0" y="23431500"/>
           <a:ext cx="12952381" cy="7314286"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1220,7 +1182,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1415,8 +1377,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A166" sqref="A166"/>
+    <sheetView topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="A124" sqref="A124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
